--- a/data/stat probs/thaddeus young stat probs - condition.xlsx
+++ b/data/stat probs/thaddeus young stat probs - condition.xlsx
@@ -33,18 +33,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 full" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 full" sheetId="38" state="visible" r:id="rId38"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 full" sheetId="40" state="visible" r:id="rId40"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
@@ -577,28 +577,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1381,28 +1381,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1863,28 +1863,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2345,22 +2345,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2571,22 +2571,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2797,28 +2797,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -3375,28 +3375,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -3953,28 +3953,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -4499,28 +4499,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -5045,22 +5045,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5239,28 +5239,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5913,22 +5913,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6107,22 +6107,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6781,22 +6781,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7455,28 +7455,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -7809,28 +7809,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -8163,28 +8163,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -8837,28 +8837,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -9443,6 +9443,650 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9511,22 +10155,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9724,842 +10368,6 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33</v>
-      </c>
-      <c r="E3" t="n">
-        <v>67</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>67</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33</v>
-      </c>
-      <c r="E6" t="n">
-        <v>67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>67</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67</v>
-      </c>
-      <c r="E7" t="n">
-        <v>67</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>86</v>
-      </c>
-      <c r="F3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>86</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14</v>
-      </c>
-      <c r="J3" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>86</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>71</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29</v>
-      </c>
-      <c r="G4" t="n">
-        <v>71</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>71</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29</v>
-      </c>
-      <c r="E5" t="n">
-        <v>71</v>
-      </c>
-      <c r="F5" t="n">
-        <v>29</v>
-      </c>
-      <c r="G5" t="n">
-        <v>29</v>
-      </c>
-      <c r="H5" t="n">
-        <v>71</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>71</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29</v>
-      </c>
-      <c r="E6" t="n">
-        <v>57</v>
-      </c>
-      <c r="F6" t="n">
-        <v>43</v>
-      </c>
-      <c r="G6" t="n">
-        <v>29</v>
-      </c>
-      <c r="H6" t="n">
-        <v>71</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>57</v>
-      </c>
-      <c r="D7" t="n">
-        <v>43</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29</v>
-      </c>
-      <c r="F7" t="n">
-        <v>71</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14</v>
-      </c>
-      <c r="H7" t="n">
-        <v>86</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>57</v>
-      </c>
-      <c r="D8" t="n">
-        <v>43</v>
-      </c>
-      <c r="E8" t="n">
-        <v>29</v>
-      </c>
-      <c r="F8" t="n">
-        <v>71</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>57</v>
-      </c>
-      <c r="D9" t="n">
-        <v>43</v>
-      </c>
-      <c r="E9" t="n">
-        <v>29</v>
-      </c>
-      <c r="F9" t="n">
-        <v>71</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>57</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43</v>
-      </c>
-      <c r="E10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F10" t="n">
-        <v>71</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>43</v>
-      </c>
-      <c r="D11" t="n">
-        <v>57</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>43</v>
-      </c>
-      <c r="D12" t="n">
-        <v>57</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>43</v>
-      </c>
-      <c r="D13" t="n">
-        <v>57</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>43</v>
-      </c>
-      <c r="D14" t="n">
-        <v>57</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10637,28 +10445,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -11051,6 +10859,296 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11119,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -11596,7 +11694,553 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>86</v>
+      </c>
+      <c r="I2" t="n">
+        <v>86</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>86</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>86</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>71</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>71</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29</v>
+      </c>
+      <c r="G5" t="n">
+        <v>29</v>
+      </c>
+      <c r="H5" t="n">
+        <v>71</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29</v>
+      </c>
+      <c r="H6" t="n">
+        <v>71</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>86</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>71</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>57</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>71</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>57</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F10" t="n">
+        <v>71</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>43</v>
+      </c>
+      <c r="D12" t="n">
+        <v>57</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>43</v>
+      </c>
+      <c r="D13" t="n">
+        <v>57</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>43</v>
+      </c>
+      <c r="D14" t="n">
+        <v>57</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>86</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11665,16 +12309,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11822,7 +12466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11891,16 +12535,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12040,586 +12684,6 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -12697,28 +12761,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -12735,22 +12799,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -12767,16 +12831,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -12793,16 +12857,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -12825,16 +12889,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -12857,16 +12921,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -12889,16 +12953,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -12987,28 +13051,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -13025,22 +13089,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -13057,16 +13121,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -13083,16 +13147,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -13115,16 +13179,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -13147,16 +13211,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -13179,16 +13243,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -13214,7 +13278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13277,22 +13341,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13315,22 +13379,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -13347,16 +13411,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -13373,22 +13437,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -13405,22 +13469,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -13437,16 +13501,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -13469,16 +13533,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -13490,262 +13554,6 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29</v>
-      </c>
-      <c r="D9" t="n">
-        <v>71</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>86</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>86</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>86</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>86</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>86</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>86</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14</v>
-      </c>
-      <c r="D14" t="n">
-        <v>86</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13760,7 +13568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13823,22 +13631,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13861,22 +13669,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -13893,16 +13701,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -13919,22 +13727,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -13951,22 +13759,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -13983,16 +13791,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -14015,16 +13823,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -14036,262 +13844,6 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29</v>
-      </c>
-      <c r="D9" t="n">
-        <v>71</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>86</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>86</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>86</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>86</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>86</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>86</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14</v>
-      </c>
-      <c r="D14" t="n">
-        <v>86</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14369,22 +13921,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14595,28 +14147,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -15077,22 +14629,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15303,22 +14855,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15561,22 +15113,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15819,28 +15371,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16365,28 +15917,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16911,22 +16463,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17265,22 +16817,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17619,22 +17171,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17941,22 +17493,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18263,22 +17815,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18841,28 +18393,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -19515,22 +19067,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20093,22 +19645,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20415,22 +19967,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20737,22 +20289,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21091,22 +20643,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21445,28 +20997,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -21703,28 +21255,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -21961,22 +21513,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22283,22 +21835,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22605,22 +22157,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22831,28 +22383,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -23505,22 +23057,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23731,28 +23283,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24085,28 +23637,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24439,16 +23991,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24665,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24891,22 +24443,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25469,22 +25021,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26047,28 +25599,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -26465,28 +26017,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -26883,22 +26435,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27243,16 +26795,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27463,22 +27015,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27817,22 +27369,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28299,22 +27851,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28781,22 +28333,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29071,22 +28623,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29361,22 +28913,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29523,22 +29075,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29685,22 +29237,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29975,22 +29527,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30265,22 +29817,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30945,16 +30497,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31165,22 +30717,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31839,22 +31391,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32321,22 +31873,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32803,22 +32355,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33029,22 +32581,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33261,16 +32813,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33615,16 +33167,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33969,10 +33521,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34131,10 +33683,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34287,16 +33839,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34519,10 +34071,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34643,16 +34195,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
